--- a/biology/Botanique/Stère/Stère.xlsx
+++ b/biology/Botanique/Stère/Stère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%A8re</t>
+          <t>Stère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le stère[1] (du grec stereos, solide) est une unité de mesure de volume, valant un mètre cube, utilisée pour mesurer les volumes de stockage de bois de chauffage ou de charpente.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le stère (du grec stereos, solide) est une unité de mesure de volume, valant un mètre cube, utilisée pour mesurer les volumes de stockage de bois de chauffage ou de charpente.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>St%C3%A8re</t>
+          <t>Stère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, le stère n'est plus officiellement utilisé comme unité légale[2] : « L'emploi du stère devra cesser avant le 31 décembre 1977[3] », mais il est encore fréquemment utilisé pour le commerce du bois (de chauffage et d'industrie). Seul le mètre cube demeure l'unité officielle en France[4].
-D'après l'Ademe[5], le stère (symbole st) équivaut à un mètre cube apparent dans le cas de bûches : soit un empilement de rondins ou de quartiers de bois dans un châssis délimitant un cube d'un mètre de côté. La norme NF sur le bois de chauffage spécifie que l'étiquetage doit indiquer une quantité en mètres cubes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le stère n'est plus officiellement utilisé comme unité légale : « L'emploi du stère devra cesser avant le 31 décembre 1977 », mais il est encore fréquemment utilisé pour le commerce du bois (de chauffage et d'industrie). Seul le mètre cube demeure l'unité officielle en France.
+D'après l'Ademe, le stère (symbole st) équivaut à un mètre cube apparent dans le cas de bûches : soit un empilement de rondins ou de quartiers de bois dans un châssis délimitant un cube d'un mètre de côté. La norme NF sur le bois de chauffage spécifie que l'étiquetage doit indiquer une quantité en mètres cubes.
 </t>
         </is>
       </c>
